--- a/train2.xlsx
+++ b/train2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\11111111111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83647FC6-A35E-4D55-81EB-4BA3ED6F1120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2380C6-58B4-4EA9-A577-B7608A41FFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E6344A87-205D-48BB-97D1-AD834F240AB1}"/>
   </bookViews>
@@ -78,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Simplified Arabic"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +182,21 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF7383-02E6-4130-B99D-9CC8D76A54C7}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3570,6 +3598,726 @@
         <v>5.6856631062164018</v>
       </c>
     </row>
+    <row r="82" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A82" s="7"/>
+      <c r="B82" s="4">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="C82" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="D82" s="8">
+        <v>8</v>
+      </c>
+      <c r="E82" s="9">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="F82" s="10">
+        <v>18.3182911392405</v>
+      </c>
+      <c r="G82" s="9">
+        <v>7.3250000000000002</v>
+      </c>
+      <c r="H82" s="10">
+        <v>33.216666666666697</v>
+      </c>
+      <c r="I82" s="10">
+        <v>78.119856459330194</v>
+      </c>
+      <c r="J82" s="3">
+        <v>4.5019999999999998</v>
+      </c>
+      <c r="K82" s="5">
+        <v>8.0523809523809504</v>
+      </c>
+      <c r="L82" s="11">
+        <v>5.8054626088454029</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A83" s="7"/>
+      <c r="B83" s="4">
+        <v>3.7468996229462999</v>
+      </c>
+      <c r="C83" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="D83" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="E83" s="9">
+        <v>3.9910245500088499</v>
+      </c>
+      <c r="F83" s="10">
+        <v>18.182693389592099</v>
+      </c>
+      <c r="G83" s="9">
+        <v>7.08855712064359</v>
+      </c>
+      <c r="H83" s="10">
+        <v>33.112820512820498</v>
+      </c>
+      <c r="I83" s="10">
+        <v>78.050002628949997</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4.9004967637982197</v>
+      </c>
+      <c r="K83" s="5">
+        <v>8.0880952380952404</v>
+      </c>
+      <c r="L83" s="9">
+        <v>6.221890569543179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A84" s="7"/>
+      <c r="B84" s="4">
+        <v>4.2657051043839997</v>
+      </c>
+      <c r="C84" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="D84" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="E84" s="9">
+        <v>3.97501103060933</v>
+      </c>
+      <c r="F84" s="10">
+        <v>18.047095639943699</v>
+      </c>
+      <c r="G84" s="9">
+        <v>6.8357353471409601</v>
+      </c>
+      <c r="H84" s="10">
+        <v>33.008974358974399</v>
+      </c>
+      <c r="I84" s="10">
+        <v>77.9801487985699</v>
+      </c>
+      <c r="J84" s="3">
+        <v>5.3684708697286796</v>
+      </c>
+      <c r="K84" s="5">
+        <v>8.1238095238095198</v>
+      </c>
+      <c r="L84" s="9">
+        <v>6.7442859186921718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A85" s="7"/>
+      <c r="B85" s="4">
+        <v>4.7894080336296998</v>
+      </c>
+      <c r="C85" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="D85" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="E85" s="9">
+        <v>3.8574919959051401</v>
+      </c>
+      <c r="F85" s="10">
+        <v>17.911497890295301</v>
+      </c>
+      <c r="G85" s="9">
+        <v>6.5782959000678503</v>
+      </c>
+      <c r="H85" s="10">
+        <v>32.9051282051282</v>
+      </c>
+      <c r="I85" s="10">
+        <v>77.910294968189703</v>
+      </c>
+      <c r="J85" s="3">
+        <v>5.84595954079479</v>
+      </c>
+      <c r="K85" s="5">
+        <v>8.1595238095238098</v>
+      </c>
+      <c r="L85" s="9">
+        <v>7.1819875866747855</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A86" s="7"/>
+      <c r="B86" s="4">
+        <v>5.218</v>
+      </c>
+      <c r="C86" s="8">
+        <v>14</v>
+      </c>
+      <c r="D86" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E86" s="9">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="F86" s="10">
+        <v>17.775900140647</v>
+      </c>
+      <c r="G86" s="9">
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="H86" s="10">
+        <v>32.801282051282101</v>
+      </c>
+      <c r="I86" s="10">
+        <v>77.840441137809606</v>
+      </c>
+      <c r="J86" s="3">
+        <v>6.2729999999999997</v>
+      </c>
+      <c r="K86" s="5">
+        <v>8.1952380952380999</v>
+      </c>
+      <c r="L86" s="9">
+        <v>7.3834062297556144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A87" s="7"/>
+      <c r="B87" s="4">
+        <v>5.4771899362012002</v>
+      </c>
+      <c r="C87" s="8">
+        <v>14</v>
+      </c>
+      <c r="D87" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E87" s="9">
+        <v>3.41424019877193</v>
+      </c>
+      <c r="F87" s="10">
+        <v>17.640302390998599</v>
+      </c>
+      <c r="G87" s="9">
+        <v>6.0951483006179004</v>
+      </c>
+      <c r="H87" s="10">
+        <v>32.697435897435902</v>
+      </c>
+      <c r="I87" s="10">
+        <v>77.770587307429395</v>
+      </c>
+      <c r="J87" s="3">
+        <v>6.6021384675620904</v>
+      </c>
+      <c r="K87" s="5">
+        <v>8.2309523809523792</v>
+      </c>
+      <c r="L87" s="9">
+        <v>7.3532394077279672</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A88" s="7"/>
+      <c r="B88" s="4">
+        <v>5.5955561484984004</v>
+      </c>
+      <c r="C88" s="8">
+        <v>13.9</v>
+      </c>
+      <c r="D88" s="8">
+        <v>9</v>
+      </c>
+      <c r="E88" s="9">
+        <v>3.14860815519619</v>
+      </c>
+      <c r="F88" s="10">
+        <v>17.504704641350202</v>
+      </c>
+      <c r="G88" s="9">
+        <v>5.8841991880210402</v>
+      </c>
+      <c r="H88" s="10">
+        <v>32.593589743589703</v>
+      </c>
+      <c r="I88" s="10">
+        <v>77.700733477049297</v>
+      </c>
+      <c r="J88" s="3">
+        <v>6.8359571525563601</v>
+      </c>
+      <c r="K88" s="5">
+        <v>8.2666666666666693</v>
+      </c>
+      <c r="L88" s="9">
+        <v>7.135256406267251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A89" s="7"/>
+      <c r="B89" s="4">
+        <v>5.6273942865463997</v>
+      </c>
+      <c r="C89" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="D89" s="8">
+        <v>9</v>
+      </c>
+      <c r="E89" s="9">
+        <v>2.9016720340223499</v>
+      </c>
+      <c r="F89" s="10">
+        <v>17.369106891701801</v>
+      </c>
+      <c r="G89" s="9">
+        <v>5.6981504814136699</v>
+      </c>
+      <c r="H89" s="10">
+        <v>32.489743589743597</v>
+      </c>
+      <c r="I89" s="10">
+        <v>77.630879646669101</v>
+      </c>
+      <c r="J89" s="3">
+        <v>6.9895472612724499</v>
+      </c>
+      <c r="K89" s="5">
+        <v>8.3023809523809504</v>
+      </c>
+      <c r="L89" s="9">
+        <v>6.7732265110489482</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A90" s="7"/>
+      <c r="B90" s="4">
+        <v>5.6269999999999998</v>
+      </c>
+      <c r="C90" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="D90" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E90" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="F90" s="10">
+        <v>17.2335091420534</v>
+      </c>
+      <c r="G90" s="9">
+        <v>5.54</v>
+      </c>
+      <c r="H90" s="10">
+        <v>32.385897435897398</v>
+      </c>
+      <c r="I90" s="10">
+        <v>77.561025816289003</v>
+      </c>
+      <c r="J90" s="3">
+        <v>7.0780000000000003</v>
+      </c>
+      <c r="K90" s="5">
+        <v>8.3380952380952404</v>
+      </c>
+      <c r="L90" s="9">
+        <v>6.3148625368700797</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A91" s="7"/>
+      <c r="B91" s="4">
+        <v>5.63827813224888</v>
+      </c>
+      <c r="C91" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="D91" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E91" s="9">
+        <v>2.5998896549034201</v>
+      </c>
+      <c r="F91" s="10">
+        <v>17.097911392405098</v>
+      </c>
+      <c r="G91" s="9">
+        <v>5.4113496768847904</v>
+      </c>
+      <c r="H91" s="10">
+        <v>32.282051282051299</v>
+      </c>
+      <c r="I91" s="10">
+        <v>77.491171985908807</v>
+      </c>
+      <c r="J91" s="3">
+        <v>7.1166056159533797</v>
+      </c>
+      <c r="K91" s="5">
+        <v>8.3738095238095305</v>
+      </c>
+      <c r="L91" s="9">
+        <v>5.8236514150141376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A92" s="7"/>
+      <c r="B92" s="4">
+        <v>5.6635703016223697</v>
+      </c>
+      <c r="C92" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="E92" s="9">
+        <v>2.55655634860589</v>
+      </c>
+      <c r="F92" s="10">
+        <v>16.962313642756701</v>
+      </c>
+      <c r="G92" s="9">
+        <v>5.3082179007748396</v>
+      </c>
+      <c r="H92" s="10">
+        <v>32.1782051282051</v>
+      </c>
+      <c r="I92" s="10">
+        <v>77.421318155528695</v>
+      </c>
+      <c r="J92" s="3">
+        <v>7.1214505200458502</v>
+      </c>
+      <c r="K92" s="5">
+        <v>8.4095238095238098</v>
+      </c>
+      <c r="L92" s="9">
+        <v>5.3670236058862466</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A93" s="7"/>
+      <c r="B93" s="4">
+        <v>5.6948273201846797</v>
+      </c>
+      <c r="C93" s="8">
+        <v>13</v>
+      </c>
+      <c r="D93" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E93" s="9">
+        <v>2.5549448680054199</v>
+      </c>
+      <c r="F93" s="10">
+        <v>16.8267158931083</v>
+      </c>
+      <c r="G93" s="9">
+        <v>5.2252271742774701</v>
+      </c>
+      <c r="H93" s="10">
+        <v>32.074358974359001</v>
+      </c>
+      <c r="I93" s="10">
+        <v>77.351464325148598</v>
+      </c>
+      <c r="J93" s="3">
+        <v>7.1088201641153903</v>
+      </c>
+      <c r="K93" s="5">
+        <v>8.4452380952380999</v>
+      </c>
+      <c r="L93" s="9">
+        <v>5.0124095698914939</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A94" s="7"/>
+      <c r="B94" s="4">
+        <v>5.7240000000000002</v>
+      </c>
+      <c r="C94" s="8">
+        <v>13</v>
+      </c>
+      <c r="D94" s="8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E94" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="F94" s="10">
+        <v>16.691118143459899</v>
+      </c>
+      <c r="G94" s="9">
+        <v>5.157</v>
+      </c>
+      <c r="H94" s="10">
+        <v>31.970512820512798</v>
+      </c>
+      <c r="I94" s="10">
+        <v>77.281610494768401</v>
+      </c>
+      <c r="J94" s="3">
+        <v>7.0949999999999998</v>
+      </c>
+      <c r="K94" s="5">
+        <v>8.4809523809523792</v>
+      </c>
+      <c r="L94" s="9">
+        <v>4.8083165789834021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A95" s="7"/>
+      <c r="B95" s="4">
+        <v>5.7447600348032397</v>
+      </c>
+      <c r="C95" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="D95" s="8">
+        <v>8</v>
+      </c>
+      <c r="E95" s="9">
+        <v>2.5811699316143599</v>
+      </c>
+      <c r="F95" s="10">
+        <v>16.555520393811499</v>
+      </c>
+      <c r="G95" s="9">
+        <v>5.0976404918429399</v>
+      </c>
+      <c r="H95" s="10">
+        <v>31.866666666666699</v>
+      </c>
+      <c r="I95" s="10">
+        <v>77.211756664388204</v>
+      </c>
+      <c r="J95" s="3">
+        <v>7.09273594362437</v>
+      </c>
+      <c r="K95" s="5">
+        <v>8.5166666666666693</v>
+      </c>
+      <c r="L95" s="9">
+        <v>4.7275591513093982</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A96" s="7"/>
+      <c r="B96" s="4">
+        <v>5.7576626450120703</v>
+      </c>
+      <c r="C96" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="D96" s="8">
+        <v>8</v>
+      </c>
+      <c r="E96" s="9">
+        <v>2.5859164503801999</v>
+      </c>
+      <c r="F96" s="10">
+        <v>16.419922644163101</v>
+      </c>
+      <c r="G96" s="9">
+        <v>5.0391792088795802</v>
+      </c>
+      <c r="H96" s="10">
+        <v>31.7628205128205</v>
+      </c>
+      <c r="I96" s="10">
+        <v>77.141902834008107</v>
+      </c>
+      <c r="J96" s="3">
+        <v>7.1006157672602201</v>
+      </c>
+      <c r="K96" s="5">
+        <v>8.5523809523809593</v>
+      </c>
+      <c r="L96" s="9">
+        <v>4.7240286165652892</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A97" s="7"/>
+      <c r="B97" s="4">
+        <v>5.7649839327148698</v>
+      </c>
+      <c r="C97" s="8">
+        <v>12</v>
+      </c>
+      <c r="D97" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="E97" s="9">
+        <v>2.5862047439559399</v>
+      </c>
+      <c r="F97" s="10">
+        <v>16.2843248945148</v>
+      </c>
+      <c r="G97" s="9">
+        <v>4.9731283214764401</v>
+      </c>
+      <c r="H97" s="10">
+        <v>31.658974358974401</v>
+      </c>
+      <c r="I97" s="10">
+        <v>77.072049003627995</v>
+      </c>
+      <c r="J97" s="3">
+        <v>7.1136877072659503</v>
+      </c>
+      <c r="K97" s="5">
+        <v>8.5880952380952404</v>
+      </c>
+      <c r="L97" s="9">
+        <v>4.751616304446955</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A98" s="7"/>
+      <c r="B98" s="4">
+        <v>5.7690000000000001</v>
+      </c>
+      <c r="C98" s="8">
+        <v>12</v>
+      </c>
+      <c r="D98" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="E98" s="9">
+        <v>2.5840000000000001</v>
+      </c>
+      <c r="F98" s="10">
+        <v>16.148727144866399</v>
+      </c>
+      <c r="G98" s="9">
+        <v>4.891</v>
+      </c>
+      <c r="H98" s="10">
+        <v>31.555128205128199</v>
+      </c>
+      <c r="I98" s="10">
+        <v>77.002195173247799</v>
+      </c>
+      <c r="J98" s="3">
+        <v>7.1269999999999998</v>
+      </c>
+      <c r="K98" s="5">
+        <v>8.6238095238095305</v>
+      </c>
+      <c r="L98" s="9">
+        <v>4.7724695507862602</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A99" s="7"/>
+      <c r="B99" s="4">
+        <v>5.77165047853814</v>
+      </c>
+      <c r="C99" s="8">
+        <v>12</v>
+      </c>
+      <c r="D99" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="E99" s="9">
+        <v>2.5809618686391</v>
+      </c>
+      <c r="F99" s="10">
+        <v>16.013129395218002</v>
+      </c>
+      <c r="G99" s="9">
+        <v>4.7867446057434497</v>
+      </c>
+      <c r="H99" s="10">
+        <v>31.451282051282</v>
+      </c>
+      <c r="I99" s="10">
+        <v>76.932341342867701</v>
+      </c>
+      <c r="J99" s="3">
+        <v>7.1366224845491004</v>
+      </c>
+      <c r="K99" s="5">
+        <v>8.6595238095238098</v>
+      </c>
+      <c r="L99" s="9">
+        <v>4.7817597159593861</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A100" s="7"/>
+      <c r="B100" s="4">
+        <v>5.7735291183293</v>
+      </c>
+      <c r="C100" s="8">
+        <v>12</v>
+      </c>
+      <c r="D100" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="E100" s="9">
+        <v>2.5775278498732601</v>
+      </c>
+      <c r="F100" s="10">
+        <v>15.877531645569601</v>
+      </c>
+      <c r="G100" s="9">
+        <v>4.6640652637068003</v>
+      </c>
+      <c r="H100" s="10">
+        <v>31.347435897435901</v>
+      </c>
+      <c r="I100" s="10">
+        <v>76.862487512487505</v>
+      </c>
+      <c r="J100" s="3">
+        <v>7.1427114109132503</v>
+      </c>
+      <c r="K100" s="5">
+        <v>8.6952380952380999</v>
+      </c>
+      <c r="L100" s="9">
+        <v>4.7829141664785357</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="23.4" x14ac:dyDescent="0.75">
+      <c r="A101" s="7"/>
+      <c r="B101" s="4">
+        <v>5.7748931989558097</v>
+      </c>
+      <c r="C101" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="D101" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="E101" s="9">
+        <v>2.5738299061707801</v>
+      </c>
+      <c r="F101" s="10">
+        <v>15.7419338959212</v>
+      </c>
+      <c r="G101" s="9">
+        <v>4.5291032898167503</v>
+      </c>
+      <c r="H101" s="10">
+        <v>31.243589743589698</v>
+      </c>
+      <c r="I101" s="10">
+        <v>76.792633682107393</v>
+      </c>
+      <c r="J101" s="3">
+        <v>7.1464446318207804</v>
+      </c>
+      <c r="K101" s="5">
+        <v>8.7309523809523792</v>
+      </c>
+      <c r="L101" s="9">
+        <v>4.7793602688559487</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
